--- a/0_data/T6662_Three_Phase_Reduced_CSV.xlsx
+++ b/0_data/T6662_Three_Phase_Reduced_CSV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48359978\Desktop\T6662_Three_Phase_reduced_function_parallel\0_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E93FBB5-CE44-428F-B067-EEB8B4EAF599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19559000-B267-41AF-B154-BF8B46300D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7425" yWindow="3390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="20" r:id="rId1"/>
@@ -377,15 +377,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162634AC-044D-4533-9AD9-CAE0D8D41513}">
-  <dimension ref="A1:B986"/>
+  <dimension ref="A1:D986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A953" workbookViewId="0">
-      <selection activeCell="F982" sqref="F982"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -393,263 +393,295 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>3000</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>201</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>438</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>826</v>
+        <v>240</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>1793</v>
+        <v>250</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>1212</v>
+        <v>322</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>485</v>
+        <v>732</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>192</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>730</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>585</v>
+        <v>876</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>210</v>
+        <v>889</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>720</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>643</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>38</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>244</v>
       </c>
       <c r="B16" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>633</v>
       </c>
       <c r="B17" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>30</v>
       </c>
       <c r="B18" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>778</v>
+        <v>116</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>614</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>2180</v>
+        <v>1232</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>792</v>
+        <v>111</v>
       </c>
       <c r="B22" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>274</v>
       </c>
       <c r="B23" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>171</v>
+        <v>685</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>443</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>1310</v>
+        <v>999</v>
       </c>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>621</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>457</v>
       </c>
       <c r="B28" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1116</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>1306</v>
+        <v>152</v>
       </c>
       <c r="B30" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>1062</v>
+        <v>650</v>
       </c>
       <c r="B31" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>1089</v>
+        <v>58</v>
       </c>
       <c r="B32" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>383</v>
       </c>
       <c r="B33" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>17</v>
       </c>
@@ -657,7 +689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>18</v>
       </c>
@@ -665,7 +697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>19</v>
       </c>
@@ -673,7 +705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>21</v>
       </c>
@@ -681,7 +713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>22</v>
       </c>
@@ -689,7 +721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>24</v>
       </c>
@@ -697,7 +729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>26</v>
       </c>
@@ -705,7 +737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>27</v>
       </c>
@@ -713,7 +745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>28</v>
       </c>
@@ -721,7 +753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>29</v>
       </c>
@@ -729,7 +761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>30</v>
       </c>
@@ -737,7 +769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>31</v>
       </c>
@@ -745,7 +777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>32</v>
       </c>
@@ -753,7 +785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>34</v>
       </c>
@@ -761,7 +793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>35</v>
       </c>
@@ -8227,7 +8259,7 @@
     </row>
     <row r="981" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A981" s="1">
-        <v>1103</v>
+        <v>426</v>
       </c>
       <c r="B981" s="1">
         <v>4</v>
@@ -8235,7 +8267,7 @@
     </row>
     <row r="982" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A982" s="1">
-        <v>1462</v>
+        <v>820</v>
       </c>
       <c r="B982" s="1">
         <v>4</v>
@@ -8243,7 +8275,7 @@
     </row>
     <row r="983" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A983" s="1">
-        <v>745</v>
+        <v>443</v>
       </c>
       <c r="B983" s="1">
         <v>4</v>
@@ -8251,7 +8283,7 @@
     </row>
     <row r="984" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A984" s="1">
-        <v>1487</v>
+        <v>1161</v>
       </c>
       <c r="B984" s="1">
         <v>4</v>
@@ -8267,7 +8299,7 @@
     </row>
     <row r="986" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A986" s="1">
-        <v>1062</v>
+        <v>353</v>
       </c>
       <c r="B986" s="1">
         <v>4</v>
